--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4848" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +414,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +461,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +616,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +663,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +818,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +865,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1078,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1125,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1256,10 +1280,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1303,28 +1327,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1349,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1458,10 +1482,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1505,28 +1529,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1551,28 +1575,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1689,10 +1713,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1736,28 +1760,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1782,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1920,10 +1944,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1967,28 +1991,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2013,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2122,10 +2146,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2169,28 +2193,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2215,28 +2239,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2377,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2424,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2579,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2626,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2810,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2857,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2903,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3017,10 +3041,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3064,28 +3088,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3110,28 +3134,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3219,10 +3243,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3266,28 +3290,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3312,28 +3336,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3421,10 +3445,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3468,28 +3492,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3514,28 +3538,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3647,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3670,28 +3694,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3740,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3825,10 +3849,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3872,28 +3896,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3918,28 +3942,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4027,10 +4051,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4074,28 +4098,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4120,28 +4144,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4229,10 +4253,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4276,28 +4300,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4322,28 +4346,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4460,10 +4484,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4507,28 +4531,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4553,28 +4577,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4662,10 +4686,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4709,28 +4733,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4755,28 +4779,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4864,10 +4888,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4911,28 +4935,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4957,28 +4981,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5066,10 +5090,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5113,28 +5137,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5159,28 +5183,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5297,10 +5321,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5344,28 +5368,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5390,28 +5414,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5499,10 +5523,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5546,28 +5570,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5592,28 +5616,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5701,10 +5725,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5748,28 +5772,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5794,28 +5818,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5903,10 +5927,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5950,28 +5974,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5996,28 +6020,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6105,10 +6129,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6152,28 +6176,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6198,28 +6222,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6336,10 +6360,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6383,28 +6407,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6429,28 +6453,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6538,10 +6562,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6585,28 +6609,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6631,28 +6655,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6740,10 +6764,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6787,28 +6811,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6833,28 +6857,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6942,10 +6966,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6989,28 +7013,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7035,28 +7059,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7173,10 +7197,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7220,28 +7244,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7266,28 +7290,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7375,10 +7399,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7422,28 +7446,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7468,28 +7492,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7577,10 +7601,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7624,28 +7648,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7670,28 +7694,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7779,10 +7803,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7826,28 +7850,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7872,28 +7896,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8010,10 +8034,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8057,28 +8081,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8103,28 +8127,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8241,10 +8265,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8288,28 +8312,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8334,28 +8358,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8443,10 +8467,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8490,28 +8514,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8536,28 +8560,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8645,10 +8669,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8692,28 +8716,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8738,28 +8762,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8847,10 +8871,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8894,28 +8918,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8940,28 +8964,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9049,10 +9073,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9096,28 +9120,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9142,28 +9166,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9222,10 +9246,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="2" t="s">
+      <c r="J315" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9269,28 +9293,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
+      <c r="A317" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="2">
+      <c r="C317" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9315,28 +9339,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="2">
+      <c r="C319" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="2">
+      <c r="D319" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="2">
+      <c r="I319" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9395,10 +9419,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
